--- a/biology/Zoologie/Dipsas_catesbyi/Dipsas_catesbyi.xlsx
+++ b/biology/Zoologie/Dipsas_catesbyi/Dipsas_catesbyi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dipsas catesbyi  est une espèce de serpents de la famille des Dipsadidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dipsas catesbyi  est une espèce de serpents de la famille des Dipsadidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre au Brésil, en Bolivie, au Pérou, en Équateur, en Colombie, au Venezuela, au Guyana, en Suriname et en Guyane[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre au Brésil, en Bolivie, au Pérou, en Équateur, en Colombie, au Venezuela, au Guyana, en Suriname et en Guyane.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La coloration de cette espèce varie considérablement en fonction de la localité, la nuque est rousse sur le plateau des Guyanes tandis quelle est blanche dans le reste de l'Amazonie[2].C'est un serpent ovipare[1]. Comme tous les autres membres du genre Dipsas, il se nourrit exclusivement de gastéropodes[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La coloration de cette espèce varie considérablement en fonction de la localité, la nuque est rousse sur le plateau des Guyanes tandis quelle est blanche dans le reste de l'Amazonie.C'est un serpent ovipare. Comme tous les autres membres du genre Dipsas, il se nourrit exclusivement de gastéropodes.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Mark Catesby[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Mark Catesby.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Sentzen, 1796 : Ophiologische Fragmente. Meyer's Zoologische Archives, vol. 2, p. 49–74.</t>
         </is>
